--- a/data/data_info.xlsx
+++ b/data/data_info.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dacon\현대제뉴인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\Oil_predict\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1B406E-6D55-4E11-8F97-BB03BB83F362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F28223D-9AA3-4666-B9A5-B9B17A5141CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>AL</t>
   </si>
@@ -442,6 +440,30 @@
   </si>
   <si>
     <t>비식별화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가솔린 연소시 부산물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율로?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,9 +890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1006,7 +1030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,15 +1038,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>104</v>
       </c>
@@ -1030,31 +1057,40 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,15 +1106,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1086,7 +1125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1102,7 +1141,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -1110,7 +1149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
@@ -1118,7 +1157,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -1270,7 +1309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" s="7" t="s">
         <v>38</v>
       </c>
@@ -1278,23 +1317,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="7" t="s">
         <v>43</v>
       </c>
@@ -1302,7 +1347,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>44</v>
       </c>
